--- a/pred_ohlcv/54_21/2019-10-31 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 WET ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-750497.1809906976</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-750736.5809906976</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-750736.5809906976</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-815777.5528906976</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-815077.5528906976</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-815077.5528906976</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-39010079.54119069</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2860803.017654459</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2231956.100954459</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2231956.100954459</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2290550.838354459</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2288739.907254459</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2288799.907254459</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2662484.918954459</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2587779.380354459</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2585779.380354459</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2585779.380354459</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2567367.357854459</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1849347.403767015</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1851347.403767015</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1851347.403767015</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1851337.403767015</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1888346.748767015</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1840750.780767015</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1858988.875667015</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1858988.875667015</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1976853.534367015</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 WET ohlcv.xlsx
@@ -2108,7 +2108,7 @@
         <v>-39010079.54119069</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2860803.017654459</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2231956.100954459</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2231956.100954459</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2290550.838354459</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2288739.907254459</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2662484.918954459</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2585779.380354459</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2567367.357854459</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1849347.403767015</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1851347.403767015</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1851337.403767015</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1858988.875667015</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
